--- a/outputs-HGR-r202-archive/f__Bifidobacteriaceae.xlsx
+++ b/outputs-HGR-r202-archive/f__Bifidobacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1826.fa</t>
+          <t>even_MAG-GUT10488.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2359.844342978823</v>
+        <v>2696.86692102634</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -499,11 +499,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2058.fa</t>
+          <t>even_MAG-GUT1826.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2609.398649732417</v>
+        <v>2359.844342978823</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2079.fa</t>
+          <t>even_MAG-GUT2058.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3638.579197250044</v>
+        <v>2609.398649732417</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -539,11 +539,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23723.fa</t>
+          <t>even_MAG-GUT2078.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2886.078327380479</v>
+        <v>1859.660754907328</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -559,11 +559,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26586.fa</t>
+          <t>even_MAG-GUT2079.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2767.848231865582</v>
+        <v>3638.579197250044</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -579,11 +579,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28738.fa</t>
+          <t>even_MAG-GUT23346.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3625.537439895095</v>
+        <v>1862.309566340928</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -599,11 +599,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT408.fa</t>
+          <t>even_MAG-GUT23723.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2337.422995285599</v>
+        <v>2886.078327380479</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -619,11 +619,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT409.fa</t>
+          <t>even_MAG-GUT26586.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2333.210505190774</v>
+        <v>2767.848231865582</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -639,11 +639,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT412.fa</t>
+          <t>even_MAG-GUT28721.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2205.174085583621</v>
+        <v>3069.774596171768</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -659,11 +659,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT418.fa</t>
+          <t>even_MAG-GUT28738.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2013.075379025393</v>
+        <v>3625.537439895095</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT420.fa</t>
+          <t>even_MAG-GUT408.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1803.074562122889</v>
+        <v>2337.422995285599</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -699,11 +699,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT421.fa</t>
+          <t>even_MAG-GUT409.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2494.382683548839</v>
+        <v>2333.210505190774</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT422.fa</t>
+          <t>even_MAG-GUT412.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1617.007679247531</v>
+        <v>2205.174085583621</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -739,11 +739,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT423.fa</t>
+          <t>even_MAG-GUT418.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1993.392093064994</v>
+        <v>2013.075379025393</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -759,11 +759,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT425.fa</t>
+          <t>even_MAG-GUT420.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2373.490401720585</v>
+        <v>1803.074562122889</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -779,11 +779,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT429.fa</t>
+          <t>even_MAG-GUT421.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2482.960124421564</v>
+        <v>2494.382683548839</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -799,11 +799,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT430.fa</t>
+          <t>even_MAG-GUT422.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2151.314782145703</v>
+        <v>1617.007679247531</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -819,11 +819,11 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT431.fa</t>
+          <t>even_MAG-GUT423.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2526.42583980858</v>
+        <v>1993.392093064994</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -839,11 +839,11 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT432.fa</t>
+          <t>even_MAG-GUT425.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3085.312108400485</v>
+        <v>2373.490401720585</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -859,11 +859,11 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT433.fa</t>
+          <t>even_MAG-GUT429.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2700.958048081258</v>
+        <v>2482.960124421564</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT435.fa</t>
+          <t>even_MAG-GUT430.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2231.764019114134</v>
+        <v>2151.314782145703</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43623.fa</t>
+          <t>even_MAG-GUT431.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2200.534937335815</v>
+        <v>2526.42583980858</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -919,11 +919,11 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43934.fa</t>
+          <t>even_MAG-GUT432.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2092.972100743096</v>
+        <v>3085.312108400485</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -939,11 +939,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT444.fa</t>
+          <t>even_MAG-GUT433.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2567.530422134068</v>
+        <v>2700.958048081258</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -959,11 +959,11 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT445.fa</t>
+          <t>even_MAG-GUT435.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2543.043696136292</v>
+        <v>2231.764019114134</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -979,11 +979,11 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT446.fa</t>
+          <t>even_MAG-GUT43623.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2326.154980427164</v>
+        <v>2200.534937335815</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -999,11 +999,11 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT450.fa</t>
+          <t>even_MAG-GUT43628.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2458.915479408075</v>
+        <v>1841.40779738964</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1019,11 +1019,11 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT452.fa</t>
+          <t>even_MAG-GUT43934.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2497.233653809661</v>
+        <v>2092.972100743096</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1039,11 +1039,11 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT453.fa</t>
+          <t>even_MAG-GUT441.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1769.118665179531</v>
+        <v>2116.961804656934</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1059,11 +1059,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT456.fa</t>
+          <t>even_MAG-GUT444.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2066.904217310914</v>
+        <v>2567.530422134068</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1079,11 +1079,11 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT457.fa</t>
+          <t>even_MAG-GUT445.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2114.221065524808</v>
+        <v>2543.043696136292</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1099,11 +1099,11 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4577.fa</t>
+          <t>even_MAG-GUT44512.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3095.630960351742</v>
+        <v>2720.32307663387</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1119,11 +1119,11 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT459.fa</t>
+          <t>even_MAG-GUT446.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2283.857244544488</v>
+        <v>2326.154980427164</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1139,11 +1139,11 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT462.fa</t>
+          <t>even_MAG-GUT44736.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2426.532991686748</v>
+        <v>2343.033841259999</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1159,11 +1159,11 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT463.fa</t>
+          <t>even_MAG-GUT450.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2091.598535288946</v>
+        <v>2458.915479408075</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1179,11 +1179,11 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46486.fa</t>
+          <t>even_MAG-GUT452.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2538.958549232351</v>
+        <v>2497.233653809661</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1199,11 +1199,11 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT465.fa</t>
+          <t>even_MAG-GUT453.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1872.364024324941</v>
+        <v>1769.118665179531</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT467.fa</t>
+          <t>even_MAG-GUT455.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2015.344363401276</v>
+        <v>2268.110349324185</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46760.fa</t>
+          <t>even_MAG-GUT456.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2617.769590723711</v>
+        <v>2066.904217310914</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1259,11 +1259,11 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT468.fa</t>
+          <t>even_MAG-GUT457.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2422.729916280002</v>
+        <v>2114.221065524808</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1279,11 +1279,11 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT469.fa</t>
+          <t>even_MAG-GUT4577.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2362.262008264982</v>
+        <v>3095.630960351742</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1299,11 +1299,11 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT470.fa</t>
+          <t>even_MAG-GUT45829.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2442.424602562282</v>
+        <v>2048.646807279431</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1319,11 +1319,11 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT471.fa</t>
+          <t>even_MAG-GUT459.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2773.193728069602</v>
+        <v>2283.857244544488</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1339,11 +1339,11 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47464.fa</t>
+          <t>even_MAG-GUT46159.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1355.225187369552</v>
+        <v>3842.034236975632</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1359,11 +1359,11 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47585.fa</t>
+          <t>even_MAG-GUT462.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2835.068369400984</v>
+        <v>2426.532991686748</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1379,11 +1379,11 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48579.fa</t>
+          <t>even_MAG-GUT463.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1655.905789582193</v>
+        <v>2091.598535288946</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1399,11 +1399,11 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56059.fa</t>
+          <t>even_MAG-GUT464.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2472.204545796232</v>
+        <v>2219.327654692731</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1419,11 +1419,11 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64457.fa</t>
+          <t>even_MAG-GUT46486.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1902.845123593894</v>
+        <v>2538.958549232351</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1439,11 +1439,11 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66991.fa</t>
+          <t>even_MAG-GUT46493.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3118.932110900079</v>
+        <v>2436.076886257461</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1459,11 +1459,11 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67012.fa</t>
+          <t>even_MAG-GUT465.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>962.3230736909628</v>
+        <v>1872.364024324941</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1479,11 +1479,11 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67029.fa</t>
+          <t>even_MAG-GUT467.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1517.022651250602</v>
+        <v>2015.344363401276</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1499,11 +1499,11 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67723.fa</t>
+          <t>even_MAG-GUT46760.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3551.22876746876</v>
+        <v>2617.769590723711</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1519,11 +1519,11 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67975.fa</t>
+          <t>even_MAG-GUT468.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2127.388985321632</v>
+        <v>2422.729916280002</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1539,11 +1539,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68189.fa</t>
+          <t>even_MAG-GUT469.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2016.646349844703</v>
+        <v>2362.262008264982</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1559,11 +1559,11 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68197.fa</t>
+          <t>even_MAG-GUT470.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3385.954069690295</v>
+        <v>2442.424602562282</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1579,11 +1579,11 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68475.fa</t>
+          <t>even_MAG-GUT471.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3343.219963664858</v>
+        <v>2773.193728069602</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68642.fa</t>
+          <t>even_MAG-GUT47464.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2232.650653256971</v>
+        <v>1355.225187369552</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1619,11 +1619,11 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68697.fa</t>
+          <t>even_MAG-GUT47585.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2799.440648107322</v>
+        <v>2835.068369400984</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1639,11 +1639,11 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68968.fa</t>
+          <t>even_MAG-GUT47777.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1772.327642850934</v>
+        <v>2847.994210863458</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1659,11 +1659,11 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69064.fa</t>
+          <t>even_MAG-GUT48579.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2403.764146112663</v>
+        <v>1655.905789582193</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1679,11 +1679,11 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69117.fa</t>
+          <t>even_MAG-GUT54955.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2958.124194375757</v>
+        <v>3075.998937236658</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1699,11 +1699,11 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69121.fa</t>
+          <t>even_MAG-GUT55792.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2202.523954265387</v>
+        <v>3361.605423439257</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1719,11 +1719,11 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69224.fa</t>
+          <t>even_MAG-GUT56059.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2065.55036058474</v>
+        <v>2472.204545796232</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1739,11 +1739,11 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69229.fa</t>
+          <t>even_MAG-GUT59472.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1592.409737631549</v>
+        <v>3253.980385773254</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1759,11 +1759,11 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69253.fa</t>
+          <t>even_MAG-GUT62023.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3177.180981101634</v>
+        <v>3229.703679748244</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1779,11 +1779,11 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69434.fa</t>
+          <t>even_MAG-GUT64457.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2894.562552624797</v>
+        <v>1902.845123593894</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1799,11 +1799,11 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69447.fa</t>
+          <t>even_MAG-GUT66991.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2678.289276878396</v>
+        <v>3118.932110900079</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1819,11 +1819,11 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74347.fa</t>
+          <t>even_MAG-GUT67012.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2753.529097053977</v>
+        <v>962.3230736909628</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1839,11 +1839,11 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80568.fa</t>
+          <t>even_MAG-GUT67029.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3364.494288661095</v>
+        <v>1517.022651250602</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1859,11 +1859,11 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT9016.fa</t>
+          <t>even_MAG-GUT67723.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3046.692730283335</v>
+        <v>3551.22876746876</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1879,11 +1879,11 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91733.fa</t>
+          <t>even_MAG-GUT67770.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2401.57166098677</v>
+        <v>3481.71588509444</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1899,11 +1899,11 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91735.fa</t>
+          <t>even_MAG-GUT67779.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2401.57166098677</v>
+        <v>3452.283403990963</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1919,11 +1919,11 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91947.fa</t>
+          <t>even_MAG-GUT67830.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1278.672358686938</v>
+        <v>3691.474857440761</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1939,18 +1939,618 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT67975.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2127.388985321632</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68007.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3203.114741153597</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68189.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2016.646349844703</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68190.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2346.934719291185</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68197.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3385.954069690295</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68475.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3343.219963664858</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68642.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2232.650653256971</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68697.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2799.440648107322</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT68968.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1772.327642850934</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69048.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3864.590715764813</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69064.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2403.764146112663</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69117.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2958.124194375757</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69121.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2202.523954265387</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69224.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2065.55036058474</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69229.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1592.409737631549</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69253.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3177.180981101634</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69434.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2894.562552624797</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT69447.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2678.289276878396</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74347.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2753.529097053977</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7772.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3534.214796338337</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80568.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3364.494288661095</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT85070.fa</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3380.545398593312</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86606.fa</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2989.743735193919</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88052.fa</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3427.857547576905</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88444.fa</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2750.139526225799</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9016.fa</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3046.692730283335</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91733.fa</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2401.57166098677</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91735.fa</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2401.57166098677</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91947.fa</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1278.672358686938</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT92065.fa</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B105" t="n">
         <v>2186.412353300441</v>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>g__Bifidobacterium</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9523.fa</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3312.198688585624</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>g__Bifidobacterium</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>g__Bifidobacterium</t>
         </is>
